--- a/municipal/დემოგრაფია/ქორწინების ზოგადი კოეფიციენტი/დედოფლისწყარო.xlsx
+++ b/municipal/დემოგრაფია/ქორწინების ზოგადი კოეფიციენტი/დედოფლისწყარო.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\qarTuli\cx 18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\დემოგრაფია და მოსახლეობა\კოეფიციენტები ქარ. EN\3. ქორწინების ზოგადი კოეფიციენტი ქარ. EN\ქორწინების ზოგადი კოეფიციენტი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68822A80-6625-4E09-AB39-0E6DD93B9EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0170AE-A040-412D-B11C-7E52A5C8B6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="1845" windowWidth="12390" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="5205" windowWidth="17940" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="დედოფლისწყარო" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,10 +43,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +109,12 @@
       <sz val="10"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -170,19 +177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -257,6 +251,34 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -268,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -284,17 +306,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -305,28 +318,49 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,9 +649,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="21" customWidth="1"/>
-    <col min="2" max="13" width="7.140625" style="21" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="22.28515625" style="17" customWidth="1"/>
+    <col min="2" max="17" width="8.7109375" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -669,7 +703,7 @@
       <c r="AR1" s="2"/>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -794,131 +828,155 @@
       <c r="L4" s="6">
         <v>2020</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>2021</v>
+      </c>
+      <c r="N4" s="22">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="21">
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>8.9</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>7.9</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>10</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>8.5</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="12">
         <v>7.2</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="12">
         <v>5.6</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="12">
         <v>6.7</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <v>5.9</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="12">
         <v>4.3</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <v>5.9</v>
+      </c>
+      <c r="N5" s="23">
+        <v>6.1</v>
+      </c>
+      <c r="O5" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>7.7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>10.4</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>7.9</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>11.3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>9.4</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>8.4</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>7.1</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>8.9</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>6.6</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>4.7</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>5.8</v>
+      </c>
+      <c r="N6" s="24">
+        <v>6.8</v>
+      </c>
+      <c r="O6" s="18">
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>9.9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>7.8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>10.3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>8.1</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>6.7</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>5</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>5.9</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>5.6</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>4.2</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>6</v>
+      </c>
+      <c r="N7" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="O7" s="20">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
